--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H2">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I2">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J2">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.17421741275856</v>
+        <v>0.11008</v>
       </c>
       <c r="N2">
-        <v>1.17421741275856</v>
+        <v>0.33024</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.06903792193848049</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.06903792193848049</v>
       </c>
       <c r="Q2">
-        <v>17.98055824153288</v>
+        <v>2.522611406506667</v>
       </c>
       <c r="R2">
-        <v>17.98055824153288</v>
+        <v>22.70350265856</v>
       </c>
       <c r="S2">
-        <v>0.03927622816274133</v>
+        <v>0.003838508708241158</v>
       </c>
       <c r="T2">
-        <v>0.03927622816274133</v>
+        <v>0.003838508708241159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>92.4220911076807</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H3">
-        <v>92.4220911076807</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I3">
-        <v>0.237055977055845</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J3">
-        <v>0.237055977055845</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17421741275856</v>
+        <v>1.484406</v>
       </c>
       <c r="N3">
-        <v>1.17421741275856</v>
+        <v>4.453218</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9309620780615195</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9309620780615195</v>
       </c>
       <c r="Q3">
-        <v>108.5236287021967</v>
+        <v>34.016892328188</v>
       </c>
       <c r="R3">
-        <v>108.5236287021967</v>
+        <v>306.152030953692</v>
       </c>
       <c r="S3">
-        <v>0.237055977055845</v>
+        <v>0.05176149489067428</v>
       </c>
       <c r="T3">
-        <v>0.237055977055845</v>
+        <v>0.05176149489067429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.5016106770956</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H4">
-        <v>75.5016106770956</v>
+        <v>280.043709</v>
       </c>
       <c r="I4">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J4">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.17421741275856</v>
+        <v>0.11008</v>
       </c>
       <c r="N4">
-        <v>1.17421741275856</v>
+        <v>0.33024</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.06903792193848049</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.06903792193848049</v>
       </c>
       <c r="Q4">
-        <v>88.65530594836326</v>
+        <v>10.27573716224</v>
       </c>
       <c r="R4">
-        <v>88.65530594836326</v>
+        <v>92.48163446015998</v>
       </c>
       <c r="S4">
-        <v>0.1936561689293081</v>
+        <v>0.01563598201416096</v>
       </c>
       <c r="T4">
-        <v>0.1936561689293081</v>
+        <v>0.01563598201416096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>80.9438020134762</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H5">
-        <v>80.9438020134762</v>
+        <v>280.043709</v>
       </c>
       <c r="I5">
-        <v>0.2076149959706424</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J5">
-        <v>0.2076149959706424</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.17421741275856</v>
+        <v>1.484406</v>
       </c>
       <c r="N5">
-        <v>1.17421741275856</v>
+        <v>4.453218</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9309620780615195</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9309620780615195</v>
       </c>
       <c r="Q5">
-        <v>95.04562177910515</v>
+        <v>138.566187300618</v>
       </c>
       <c r="R5">
-        <v>95.04562177910515</v>
+        <v>1247.095685705562</v>
       </c>
       <c r="S5">
-        <v>0.2076149959706424</v>
+        <v>0.2108479789036393</v>
       </c>
       <c r="T5">
-        <v>0.2076149959706424</v>
+        <v>0.2108479789036393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.1826616038246</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H6">
-        <v>56.1826616038246</v>
+        <v>240.687676</v>
       </c>
       <c r="I6">
-        <v>0.1441044622608168</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J6">
-        <v>0.1441044622608168</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.17421741275856</v>
+        <v>0.11008</v>
       </c>
       <c r="N6">
-        <v>1.17421741275856</v>
+        <v>0.33024</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.06903792193848049</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.06903792193848049</v>
       </c>
       <c r="Q6">
-        <v>65.97065955033261</v>
+        <v>8.831633124693333</v>
       </c>
       <c r="R6">
-        <v>65.97065955033261</v>
+        <v>79.48469812223999</v>
       </c>
       <c r="S6">
-        <v>0.1441044622608168</v>
+        <v>0.01343857423687457</v>
       </c>
       <c r="T6">
-        <v>0.1441044622608168</v>
+        <v>0.01343857423687458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,424 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.5115776631078</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H7">
-        <v>69.5115776631078</v>
+        <v>240.687676</v>
       </c>
       <c r="I7">
-        <v>0.1782921676206465</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J7">
-        <v>0.1782921676206465</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.17421741275856</v>
+        <v>1.484406</v>
       </c>
       <c r="N7">
-        <v>1.17421741275856</v>
+        <v>4.453218</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9309620780615195</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9309620780615195</v>
       </c>
       <c r="Q7">
-        <v>81.62170488034016</v>
+        <v>119.092743460152</v>
       </c>
       <c r="R7">
-        <v>81.62170488034016</v>
+        <v>1071.834691141368</v>
       </c>
       <c r="S7">
-        <v>0.1782921676206465</v>
+        <v>0.1812163901586304</v>
       </c>
       <c r="T7">
-        <v>0.1782921676206465</v>
+        <v>0.1812163901586305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>80.97090133333333</v>
+      </c>
+      <c r="H8">
+        <v>242.912704</v>
+      </c>
+      <c r="I8">
+        <v>0.1964544447565975</v>
+      </c>
+      <c r="J8">
+        <v>0.1964544447565976</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.11008</v>
+      </c>
+      <c r="N8">
+        <v>0.33024</v>
+      </c>
+      <c r="O8">
+        <v>0.06903792193848049</v>
+      </c>
+      <c r="P8">
+        <v>0.06903792193848049</v>
+      </c>
+      <c r="Q8">
+        <v>8.913276818773333</v>
+      </c>
+      <c r="R8">
+        <v>80.21949136895999</v>
+      </c>
+      <c r="S8">
+        <v>0.01356280662157351</v>
+      </c>
+      <c r="T8">
+        <v>0.01356280662157351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>80.97090133333333</v>
+      </c>
+      <c r="H9">
+        <v>242.912704</v>
+      </c>
+      <c r="I9">
+        <v>0.1964544447565975</v>
+      </c>
+      <c r="J9">
+        <v>0.1964544447565976</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.484406</v>
+      </c>
+      <c r="N9">
+        <v>4.453218</v>
+      </c>
+      <c r="O9">
+        <v>0.9309620780615195</v>
+      </c>
+      <c r="P9">
+        <v>0.9309620780615195</v>
+      </c>
+      <c r="Q9">
+        <v>120.193691764608</v>
+      </c>
+      <c r="R9">
+        <v>1081.743225881472</v>
+      </c>
+      <c r="S9">
+        <v>0.182891638135024</v>
+      </c>
+      <c r="T9">
+        <v>0.1828916381350241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>56.835931</v>
+      </c>
+      <c r="H10">
+        <v>170.507793</v>
+      </c>
+      <c r="I10">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J10">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.11008</v>
+      </c>
+      <c r="N10">
+        <v>0.33024</v>
+      </c>
+      <c r="O10">
+        <v>0.06903792193848049</v>
+      </c>
+      <c r="P10">
+        <v>0.06903792193848049</v>
+      </c>
+      <c r="Q10">
+        <v>6.256499284479999</v>
+      </c>
+      <c r="R10">
+        <v>56.30849356032</v>
+      </c>
+      <c r="S10">
+        <v>0.00952014524497774</v>
+      </c>
+      <c r="T10">
+        <v>0.009520145244977742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>56.835931</v>
+      </c>
+      <c r="H11">
+        <v>170.507793</v>
+      </c>
+      <c r="I11">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J11">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.484406</v>
+      </c>
+      <c r="N11">
+        <v>4.453218</v>
+      </c>
+      <c r="O11">
+        <v>0.9309620780615195</v>
+      </c>
+      <c r="P11">
+        <v>0.9309620780615195</v>
+      </c>
+      <c r="Q11">
+        <v>84.36759699198599</v>
+      </c>
+      <c r="R11">
+        <v>759.308372927874</v>
+      </c>
+      <c r="S11">
+        <v>0.1283771867961158</v>
+      </c>
+      <c r="T11">
+        <v>0.1283771867961158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H12">
+        <v>233.583249</v>
+      </c>
+      <c r="I12">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J12">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.11008</v>
+      </c>
+      <c r="N12">
+        <v>0.33024</v>
+      </c>
+      <c r="O12">
+        <v>0.06903792193848049</v>
+      </c>
+      <c r="P12">
+        <v>0.06903792193848049</v>
+      </c>
+      <c r="Q12">
+        <v>8.570948016639999</v>
+      </c>
+      <c r="R12">
+        <v>77.13853214976</v>
+      </c>
+      <c r="S12">
+        <v>0.01304190511265254</v>
+      </c>
+      <c r="T12">
+        <v>0.01304190511265255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H13">
+        <v>233.583249</v>
+      </c>
+      <c r="I13">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J13">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.484406</v>
+      </c>
+      <c r="N13">
+        <v>4.453218</v>
+      </c>
+      <c r="O13">
+        <v>0.9309620780615195</v>
+      </c>
+      <c r="P13">
+        <v>0.9309620780615195</v>
+      </c>
+      <c r="Q13">
+        <v>115.577458771698</v>
+      </c>
+      <c r="R13">
+        <v>1040.197128945282</v>
+      </c>
+      <c r="S13">
+        <v>0.1758673891774356</v>
+      </c>
+      <c r="T13">
+        <v>0.1758673891774356</v>
       </c>
     </row>
   </sheetData>
